--- a/resources/datos.xlsx
+++ b/resources/datos.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="16">
   <si>
     <t>persona</t>
   </si>
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>6.5037178E7</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -509,70 +509,70 @@
     </row>
     <row r="5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.7648109E8</v>
+        <v>6.5037178E7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
         <v>-4.7648109E8</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>6.5037178E7</v>
+        <v>-1.94623651E9</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
         <v>6.5037178E7</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -597,16 +597,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.94623651E9</v>
+        <v>-4.7648109E8</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -614,16 +614,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>6.5037178E7</v>
+        <v>-4.7648109E8</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
